--- a/PDn/PDn_DocsRegulations.xlsx
+++ b/PDn/PDn_DocsRegulations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\InfoSec_Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\InfoSec_Labs\PDn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7836ED-0ECB-47DD-9EAC-6C6447D0D188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADF046-0FC0-4DFC-8AE3-9DD3DDC91309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{991D7B07-5438-4E2E-B525-E469EFC7087A}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{991D7B07-5438-4E2E-B525-E469EFC7087A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1402,12 +1402,12 @@
   <dimension ref="A2:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="167.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="134.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/PDn/PDn_DocsRegulations.xlsx
+++ b/PDn/PDn_DocsRegulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\InfoSec_Labs\PDn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADF046-0FC0-4DFC-8AE3-9DD3DDC91309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE9D9D7-2391-4F55-A068-C15059F44F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{991D7B07-5438-4E2E-B525-E469EFC7087A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <r>
       <t>1)</t>
@@ -172,6 +172,102 @@
   </si>
   <si>
     <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перечень сведений конфиденциального характера, обработка которых осуществляется неавтоматизированным способом</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перечень АИС содержащих ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Перечень ПД содержащихся в АИС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Определение перечня лиц работающих с ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>a.</t>
     </r>
     <r>
@@ -191,7 +287,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Приказ об утвеждении перечней ИС, сведений конфиденциального характера</t>
+      <t>Приказ о допуске к обработке ПД</t>
     </r>
   </si>
   <si>
@@ -215,7 +311,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Перечень сведений конфиденциального характера, обработка которых осуществляется неавтоматизированным способом</t>
+      <t>Перечень должностных лиц осуществляющих обработку ПД</t>
     </r>
   </si>
   <si>
@@ -239,7 +335,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Перечень АИС содержащих ПД</t>
+      <t>Журнал допуска к работе с ПД</t>
     </r>
   </si>
   <si>
@@ -263,31 +359,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Перечень ПД содержащихся в АИС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Определение перечня лиц работающих с ПД</t>
+      <t>Обязательство о неразглашении конфиденциальной информации, ПД, не содержащих гостайну</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перечень должностей служащих ответственных за проведение мероприятий по обезличиванию ПД в случае обезличивания ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перечень лиц предусматривающих замещение</t>
     </r>
   </si>
   <si>
@@ -311,7 +431,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Приказ о допуске к обработке ПД</t>
+      <t>Приказ об утверждении политики в отношении обработки ПД</t>
     </r>
   </si>
   <si>
@@ -335,7 +455,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Перечень должностных лиц осуществляющих обработку ПД</t>
+      <t>Политики в отношении обработки ПД</t>
     </r>
   </si>
   <si>
@@ -359,7 +479,349 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Журнал допуска к работе с ПД</t>
+      <t>Приказ об утверждении положения по организации и проведению работ по обеспечению безопасности ПД при обработке в ИСПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об утверждении инструкций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об организации и обеспечении функций шифрования, криптографических средств предназначенных для защиты информации не содержащих гостайну</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об утверждении правил</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об утверждении форм журналов учета</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об утверждении порядка хранения, использования и передачи ПД сотрудников</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>j.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ о выделении помещений для обработки ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Список помещений, в которых разрешена обработка ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Порядок доступа сотрудников в помещения в которых ведется обработка ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об обеспечении безопасности магнитных носителей ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об утверждении инструкций по пропускному режиму</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Информационные системы</t>
+    </r>
+  </si>
+  <si>
+    <t>Документ</t>
+  </si>
+  <si>
+    <t>Регулирующий документ</t>
+  </si>
+  <si>
+    <t>PP_RF_210312_211.txt Line - 52</t>
+  </si>
+  <si>
+    <t>PP_RF_210312_211.txt Line - 97</t>
+  </si>
+  <si>
+    <t>FSTEK_INFSOOBSH_240_22_2637.txt Line - 222</t>
+  </si>
+  <si>
+    <t>PP_RF_210312_211.txt Line - 81</t>
+  </si>
+  <si>
+    <t>PP_RF_150908_687.txt Line - 80</t>
+  </si>
+  <si>
+    <t>TK_RF.txt Line - 1651</t>
+  </si>
+  <si>
+    <t>RKN_300517_94.txt Приложение 1</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.15</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об утверждении перечней ИС, сведений конфиденциального характера</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Разработка политики безопасности ПД</t>
     </r>
   </si>
   <si>
@@ -383,7 +845,1361 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Обязательство о неразглашении конфиденциальной информации, ПД, не содержащих гостайну</t>
+      <t>Приказ об утверждении документов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Согласие по обработке ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Разъяснение по обработке ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ответ на запрос по обработке ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Согласие на обработку ПД </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Типовая форма разъяснения субъекту ПД юридических последствий отказа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Типовая форма ответа на запрос</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Уведомление о получении ПД от третьих лиц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Типовое обязательство о прекращении обработки ПД в случае расторжения трудового договора</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ix.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Уведомление об уничтожении, изменении, прекращении обработки, устранении нарушений при обработке ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция по ИБ в сфере информационного обмена с использованием информационных сетей в т.ч. Интернет</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция по организации парольной защиты в АИС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция администратора безопасности</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция пользователя АИС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция по резервному копированию и восстановлению технических средств</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция по уничтожению ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция о порядке использования электронной почты</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция для сотрудников обрабатывающих вход. корреспонденцию</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правила обработки ПД устанавливающих процедуры направленные на выявление и предотвращение нарушения законодательства РФ в сфере ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правила рассмотрения запросов субъектов ПД или их представителей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правила осуществления внутренего контроля соответствия обработки ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правила работы с обезличенными данными</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета проверок ЮЛ проводимых органами контроля</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета передачи ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета обращений субъектов ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета нештатных ситуаций ИСПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета периодического тестирования СЗИ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета содержания средств защиты ФСТЭК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета интифирусных проверок</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета сертификации ФСТЭК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перечень мест хранения материальных носителей ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета машинных носителей ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Перечень должностных лиц имеющих доступ к машинным носителям информации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета хранилищ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Инструкция по пропускному режиму</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Журнал учета посетителей КЗ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iii.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Форма пропусков</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Протокол оценки вреда субъектам</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модель угроз безопасности ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ о создании комиссии по определению уровня значимости ПД при их обработке в АИС ПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Акт уровня защищенности ИСПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приказ об определении границ КЗ и требований к ее безопасности</t>
     </r>
   </si>
   <si>
@@ -407,7 +2223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Перечень должностей служащих ответственных за проведение мероприятий по обезличиванию ПД в случае обезличивания ПД</t>
+      <t>Разработка СЗПД</t>
     </r>
   </si>
   <si>
@@ -431,36 +2247,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Перечень лиц предусматривающих замещение</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Разработка пполитики безопасности ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
+      <t>Технический проект СЗПД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g.</t>
     </r>
     <r>
       <rPr>
@@ -479,12 +2271,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Приказ об утверждении политики в отношении обработки ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
+      <t>Технический паспорт ИС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h.</t>
     </r>
     <r>
       <rPr>
@@ -503,151 +2295,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Политики в отношении обработки ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об утверждении положения по организации и проведению работ по обеспечению безопасности ПД при обработке в ИСПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об утверждении документов(согласие, разъяснение и ответ на зпарос по обработке ПД, Согласие на обработку ПД ...)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об утверждении инструкций</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об организации и обеспечении функций шифрования, криптографических средств предназначенных для защиты информации не содержащих гостайну</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об утверждении правил</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>h.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об утверждении форм журналов учета</t>
+      <t>Заключение о возможности эксплуатации СЗ ИСПД</t>
     </r>
   </si>
   <si>
@@ -671,7 +2319,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Приказ об утверждении порядка хранения, использования и передачи ПД сотрудников</t>
+      <t>Приказ о назначении администратора безопасности ИС</t>
     </r>
   </si>
   <si>
@@ -695,347 +2343,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Приказ о выделении помещений для обработки ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>k.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Список помещений, в которых разрешена обработка ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Порядок доступа сотрудников в помещения в которых ведется обработка ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об обеспечении безопасности магнитных носителей ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об утверждении инструкций по пропускному режиму</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Информационные системы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ о создании комиссии по определению уровня значимости ПД при их обработке в АИС ПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ об определении границ КЗ и требований к ее безопасности</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Разработка СЗПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Технический проект СЗПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Технический паспорт СЗПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Заключение о возможностии эксплуатации СЗПД</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Приказ о назначении администратора безопасности ИС</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>h.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Уведомление об обработке ПД к РКН</t>
     </r>
   </si>
   <si>
-    <t>Документ</t>
-  </si>
-  <si>
-    <t>Регулирующий документ</t>
-  </si>
-  <si>
-    <t>PP_RF_210312_211.txt Line - 52</t>
-  </si>
-  <si>
-    <t>PP_RF_210312_211.txt Line - 97</t>
-  </si>
-  <si>
-    <t>RKN_300517_94.txt</t>
-  </si>
-  <si>
-    <t>FSTEK_INFSOOBSH_240_22_2637.txt Line - 222</t>
-  </si>
-  <si>
-    <t>PP_RF_210312_211.txt Line - 81</t>
-  </si>
-  <si>
-    <t>PP_RF_150908_687.txt Line - 80</t>
-  </si>
-  <si>
-    <t>TK_RF.txt Line - 1651</t>
+    <t>FSTEK_180421_77.txt Приложение 2</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt Приложение 3</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.18</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.11 д</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.11 в</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.11 а Приложение 1</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.11 г</t>
+  </si>
+  <si>
+    <t>FSTEK_180421_77.txt П.7</t>
+  </si>
+  <si>
+    <t>FZ-152.txt с 18.1 ч 1 п 5</t>
   </si>
 </sst>
 </file>
@@ -1077,13 +2413,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,28 +2738,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D098049-8951-4698-B75C-C3A57D5DFF1A}">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="134.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="134.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1428,230 +2768,455 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
+      <c r="A20" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/PDn/PDn_DocsRegulations.xlsx
+++ b/PDn/PDn_DocsRegulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\InfoSec_Labs\PDn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EEC280-C153-4802-807A-51C21D216721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B8A0D-2C82-4C63-8F28-BC8688582CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{991D7B07-5438-4E2E-B525-E469EFC7087A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
   <si>
     <r>
       <t>1)</t>
@@ -2404,13 +2404,43 @@
   </si>
   <si>
     <t>п.13 Положения об особенностях обработки персональных данных, осуществляемой без использования средств автоматизации», утвержденного Постановлением от 15.09.2008 № 687</t>
+  </si>
+  <si>
+    <t>п.8 Положения об особенностях обработки персональных данных, осуществляемой без использования средств автоматизации», утвержденного Постановлением от 15.09.2008 № 687</t>
+  </si>
+  <si>
+    <t>FZ-152.txt FZ-149.txt</t>
+  </si>
+  <si>
+    <t>FZ-152.txt</t>
+  </si>
+  <si>
+    <t>FZ-152.txt PP_RF_210312_211.txt</t>
+  </si>
+  <si>
+    <t>FZ-152.txt TK_RF.txt</t>
+  </si>
+  <si>
+    <t>FAPSI_130601_152.TXT</t>
+  </si>
+  <si>
+    <t>FZ-152.txt PP_RF_210312_211.txt FSB_100714_378.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSTEK_2013_21.txt FZ-152.txt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZ-152.txt </t>
+  </si>
+  <si>
+    <t>TK_RF.txt FZ-152.txt PP_RF_011112_1119.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2423,6 +2453,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2772,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D098049-8951-4698-B75C-C3A57D5DFF1A}">
   <dimension ref="A2:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,16 +2954,25 @@
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -2946,36 +2991,57 @@
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -2994,30 +3060,48 @@
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,6 +3118,9 @@
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3044,66 +3131,105 @@
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -3182,19 +3308,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,6 +3426,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
